--- a/麻将编码及参数.xlsx
+++ b/麻将编码及参数.xlsx
@@ -1247,7 +1247,7 @@
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3281,7 +3281,7 @@
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5319,7 +5319,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
